--- a/medicine/Psychotrope/Compagnie_réunionnaise_des_tabacs/Compagnie_réunionnaise_des_tabacs.xlsx
+++ b/medicine/Psychotrope/Compagnie_réunionnaise_des_tabacs/Compagnie_réunionnaise_des_tabacs.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Compagnie_r%C3%A9unionnaise_des_tabacs</t>
+          <t>Compagnie_réunionnaise_des_tabacs</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La Compagnie réunionnaise des tabacs (Coretab) est une société française de l'industrie du tabac. Fondée en 1992, elle exploite une usine de conditionnement de tabac à Saint-Denis, à La Réunion, qui commercialise des cigarettes.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Compagnie_r%C3%A9unionnaise_des_tabacs</t>
+          <t>Compagnie_réunionnaise_des_tabacs</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,12 +524,14 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La Compagnie réunionnaise des tabacs est créée en 1992[2].
-Elle exploite une usine de conditionnement de tabac située dans la zone industrielle n°2 à Saint-Denis, à La Réunion[3]. L'usine acquiert du tabac importé par la société Sitar, filiale du groupe international Imperial Brands, et assure sa transformation en cigarettes. Ces dernières sont vendues à trois sociétés de distribution locales : Philip Morris Réunion, American Tobacco Réunion et Altadis OI, à destination du marché local[4].
-En janvier 2018, l'entreprise est victime d'un cambriolage de son usine, où des cigarettes sont dérobées. Le préjudice est estimé à environ 60 000 euros[3]. Deux suspects sont arrêtés trois mois plus tard à Saint-Denis[5].
-En 2022, la société est en difficulté financière. Elle est alors l'un des deux seuls producteurs de cigarettes en activité en France, avec la Manufacture corse de tabacs située en Corse[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Compagnie réunionnaise des tabacs est créée en 1992.
+Elle exploite une usine de conditionnement de tabac située dans la zone industrielle n°2 à Saint-Denis, à La Réunion. L'usine acquiert du tabac importé par la société Sitar, filiale du groupe international Imperial Brands, et assure sa transformation en cigarettes. Ces dernières sont vendues à trois sociétés de distribution locales : Philip Morris Réunion, American Tobacco Réunion et Altadis OI, à destination du marché local.
+En janvier 2018, l'entreprise est victime d'un cambriolage de son usine, où des cigarettes sont dérobées. Le préjudice est estimé à environ 60 000 euros. Deux suspects sont arrêtés trois mois plus tard à Saint-Denis.
+En 2022, la société est en difficulté financière. Elle est alors l'un des deux seuls producteurs de cigarettes en activité en France, avec la Manufacture corse de tabacs située en Corse.
 </t>
         </is>
       </c>
